--- a/Bestellung ADClock.xlsx
+++ b/Bestellung ADClock.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkrueger\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Git\MCT\ADClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF0C778-1C11-47F8-AB64-D79B0B4446A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>Filament Black</t>
   </si>
@@ -201,16 +208,49 @@
   </si>
   <si>
     <t>Steuern/Rabatt</t>
+  </si>
+  <si>
+    <t>Bestellt?</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/snapshot/0.html?spm=a2g0s.9042647.0.0.7b1f4c4dda9f5P&amp;orderId=101977957887740&amp;productId=32880238130</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/rillenkugellager-6000-2rs-10x26x8-mm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B00IQH1EUE/ref=ppx_yo_dt_b_asin_title_o03_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Zweikomponentenkleber</t>
+  </si>
+  <si>
+    <t>Magnete.de</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B01MQ5HJYQ/ref=ppx_yo_dt_b_asin_title_o04_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B018XL6S4O/ref=ppx_yo_dt_b_asin_title_o02_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B07KYHBVR7/ref=ppx_yo_dt_b_asin_title_o04_s00?ie=UTF8&amp;psc=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +295,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,11 +334,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,8 +349,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -347,46 +413,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:M37" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:M37"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="Teil"/>
-    <tableColumn id="2" name="pro Uhr"/>
-    <tableColumn id="3" name="pro Ziffer">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:N38" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:N38" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="13">
+      <filters blank="1">
+        <filter val="Nein"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teil"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pro Uhr"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="pro Ziffer">
       <calculatedColumnFormula>B3*18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Gesamt">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Gesamt">
       <calculatedColumnFormula>C3*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="da"/>
-    <tableColumn id="6" name="Puffer"/>
-    <tableColumn id="7" name="Benötigte Menge"/>
-    <tableColumn id="8" name="Menge pro Einheit"/>
-    <tableColumn id="9" name="Preis pro Einheit" dataCellStyle="Währung"/>
-    <tableColumn id="10" name="Benötigte Einheiten" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="da"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Puffer"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Benötigte Menge"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Menge pro Einheit"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Preis pro Einheit" dataCellStyle="Währung"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Benötigte Einheiten" dataDxfId="2">
       <calculatedColumnFormula>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Preis" dataCellStyle="Währung">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Preis" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Wo?"/>
-    <tableColumn id="13" name="Link"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Wo?"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Link"/>
+    <tableColumn id="14" xr3:uid="{F908233B-F8EC-453F-B55A-E62CBEFF952B}" name="Bestellt?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="I42:M49" totalsRowShown="0">
-  <autoFilter ref="I42:M49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="I42:M51" totalsRowShown="0">
+  <autoFilter ref="I42:M51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Bestellung"/>
-    <tableColumn id="2" name="Preis" dataCellStyle="Währung">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bestellung"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Preis" dataCellStyle="Währung">
       <calculatedColumnFormula>SUMIF(Tabelle1[Wo?],I43,Tabelle1[Preis])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Versand" dataCellStyle="Währung"/>
-    <tableColumn id="5" name="Steuern/Rabatt" dataDxfId="1" dataCellStyle="Währung"/>
-    <tableColumn id="4" name="Gesamt" dataDxfId="0" dataCellStyle="Währung">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Versand" dataCellStyle="Währung"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Steuern/Rabatt" dataDxfId="1" dataCellStyle="Währung"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Gesamt" dataDxfId="0" dataCellStyle="Währung">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -656,11 +729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +751,7 @@
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -718,8 +791,11 @@
       <c r="M2" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -761,8 +837,11 @@
       <c r="L3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -770,11 +849,11 @@
         <v>0.15</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C26" si="0">B4*18</f>
+        <f t="shared" ref="C4:C24" si="0">B4*18</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D26" si="1">C4*4</f>
+        <f t="shared" ref="D4:D24" si="1">C4*4</f>
         <v>10.799999999999999</v>
       </c>
       <c r="E4">
@@ -784,7 +863,7 @@
         <v>1.7</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G37" si="2">D4-E4+F4</f>
+        <f t="shared" ref="G4:G38" si="2">D4-E4+F4</f>
         <v>12.499999999999998</v>
       </c>
       <c r="H4">
@@ -804,8 +883,11 @@
       <c r="L4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -831,22 +913,30 @@
         <v>109</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6.31</v>
+      </c>
       <c r="J5">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="K5" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>138.82</v>
       </c>
       <c r="L5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -861,30 +951,41 @@
         <f t="shared" si="1"/>
         <v>864</v>
       </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
       <c r="F6">
         <v>50</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>914</v>
+        <v>794</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3.49</v>
+      </c>
       <c r="J6">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>914</v>
+        <v>20</v>
       </c>
       <c r="K6" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>69.800000000000011</v>
       </c>
       <c r="L6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -903,29 +1004,37 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="I7" s="6">
+        <v>143.99</v>
+      </c>
       <c r="J7">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="K7" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>143.99</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -967,8 +1076,11 @@
       <c r="L8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1007,8 +1119,11 @@
       <c r="L9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1053,8 +1168,11 @@
       <c r="M10" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1096,8 +1214,11 @@
       <c r="L11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1139,8 +1260,11 @@
       <c r="L12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1182,8 +1306,11 @@
       <c r="L13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1225,8 +1352,11 @@
       <c r="L14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1241,6 +1371,9 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="F15">
         <v>16</v>
       </c>
@@ -1249,22 +1382,27 @@
         <v>160</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="I15" s="6">
+        <v>28.8</v>
+      </c>
       <c r="J15">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="K15" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1306,8 +1444,11 @@
       <c r="L16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1322,30 +1463,39 @@
         <f t="shared" si="1"/>
         <v>1944</v>
       </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
       <c r="F17">
-        <v>56</v>
+        <f>5*72+20</f>
+        <v>380</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="H17">
         <v>2000</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6">
+        <v>7.49</v>
+      </c>
       <c r="J17">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>7.49</v>
       </c>
       <c r="L17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1387,8 +1537,11 @@
       <c r="L18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1430,8 +1583,11 @@
       <c r="L19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1473,8 +1629,11 @@
       <c r="L20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1516,7 +1675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1531,30 +1690,38 @@
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
       <c r="F22">
         <v>50</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>554</v>
+        <v>254</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4.7699999999999996</v>
+      </c>
       <c r="J22">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="K22" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>14.309999999999999</v>
       </c>
       <c r="L22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1763,11 @@
       <c r="L23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1626,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1661,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1703,8 +1873,11 @@
       <c r="L26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1746,8 +1919,11 @@
       <c r="L27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1789,8 +1965,11 @@
       <c r="L28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1832,8 +2011,11 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1841,11 +2023,11 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f>B30*18</f>
+        <f t="shared" ref="C30:C37" si="5">B30*18</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>C30*4</f>
+        <f t="shared" ref="D30:D37" si="6">C30*4</f>
         <v>0</v>
       </c>
       <c r="G30">
@@ -1865,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1874,11 +2056,11 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C31">
-        <f>B31*18</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="D31">
-        <f>C31*4</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E31">
@@ -1907,16 +2089,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="C32">
-        <f>B32*18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f>C32*4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G32">
@@ -1936,16 +2118,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
       <c r="C33">
-        <f>B33*18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>C33*4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G33">
@@ -1965,16 +2147,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="C34">
-        <f>B34*18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D34">
-        <f>C34*4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G34">
@@ -1994,16 +2176,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
       <c r="C35">
-        <f>B35*18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D35">
-        <f>C35*4</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G35">
@@ -2026,7 +2208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -2035,11 +2217,11 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C36">
-        <f>B36*18</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="D36">
-        <f>C36*4</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G36">
@@ -2063,8 +2245,11 @@
       <c r="L36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -2073,11 +2258,11 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="C37">
-        <f>B37*18</f>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="D37">
-        <f>C37*4</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G37">
@@ -2100,7 +2285,40 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <f>1/72</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="7">B38*18</f>
+        <v>0.25</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="8">C38*4</f>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="4">
+        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="6">
+        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>56</v>
       </c>
@@ -2117,7 +2335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>45</v>
       </c>
@@ -2134,7 +2352,7 @@
         <v>60.300000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>49</v>
       </c>
@@ -2149,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>44</v>
       </c>
@@ -2168,22 +2386,22 @@
         <v>405.94999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
         <v>43</v>
       </c>
       <c r="J46" s="6">
         <f>SUMIF(Tabelle1[Wo?],I46,Tabelle1[Preis])</f>
-        <v>0</v>
+        <v>91.600000000000009</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6">
         <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>91.600000000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
         <v>41</v>
       </c>
@@ -2200,7 +2418,7 @@
         <v>384.3</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>46</v>
       </c>
@@ -2221,30 +2439,68 @@
       </c>
       <c r="J49" s="6">
         <f>SUMIF(Tabelle1[Wo?],I49,Tabelle1[Preis])</f>
-        <v>0</v>
+        <v>138.82</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="7">
         <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L51" s="2" t="s">
+        <v>138.82</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="6">
+        <f>SUMIF(Tabelle1[Wo?],I50,Tabelle1[Preis])</f>
+        <v>143.99</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="7">
+        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
+        <v>143.99</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" s="6">
+        <f>SUMIF(Tabelle1[Wo?],I51,Tabelle1[Preis])</f>
+        <v>28.8</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="7">
+        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M51" s="8">
+      <c r="M53" s="8">
         <f>SUM(Tabelle2[Gesamt])</f>
-        <v>850.55</v>
+        <v>1253.7599999999998</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{E31B9AA0-941A-43DA-BDD0-D5E2C1D0F0E0}"/>
+    <hyperlink ref="M7" r:id="rId2" xr:uid="{3DDA7E41-5210-4255-AFAA-457854F2BF91}"/>
+    <hyperlink ref="M15" r:id="rId3" xr:uid="{8ACBA0A1-3FFD-49A4-9FD5-008E085369C0}"/>
+    <hyperlink ref="M17" r:id="rId4" xr:uid="{17D630C9-EADB-48A7-8267-137640739863}"/>
+    <hyperlink ref="M22" r:id="rId5" xr:uid="{A48A075F-97F3-417A-A984-1EAD41986E11}"/>
+    <hyperlink ref="M6" r:id="rId6" xr:uid="{CA0F3A00-1ADC-40B3-9247-32BE6360DE03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bestellung ADClock.xlsx
+++ b/Bestellung ADClock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Git\MCT\ADClock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\ADClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF0C778-1C11-47F8-AB64-D79B0B4446A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD589A-754A-458E-A7B3-7C924D9E1022}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>Filament Black</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Push Button</t>
   </si>
   <si>
-    <t>Befestigung Motor</t>
-  </si>
-  <si>
     <t>Preis</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Kabel Stromversorgung</t>
   </si>
   <si>
-    <t>Digitale Kommunikation</t>
-  </si>
-  <si>
     <t>Kabel Hallsensor Rot</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Kabel Hallsensor Data 2</t>
   </si>
   <si>
-    <t>Mosgummi ???</t>
-  </si>
-  <si>
     <t>Benötigte Menge</t>
   </si>
   <si>
@@ -180,27 +171,12 @@
     <t xml:space="preserve">STM 32 </t>
   </si>
   <si>
-    <t>Archer</t>
-  </si>
-  <si>
     <t>WLAN Modul?</t>
   </si>
   <si>
-    <t>Stecker</t>
-  </si>
-  <si>
-    <t>Abdeckung für Netzteil</t>
-  </si>
-  <si>
-    <t>Heißkleberpatrone</t>
-  </si>
-  <si>
     <t>Lötzinn</t>
   </si>
   <si>
-    <t>Lötfett</t>
-  </si>
-  <si>
     <t>Bestellung</t>
   </si>
   <si>
@@ -225,12 +201,6 @@
     <t>https://www.kugellager-express.de/rillenkugellager-6000-2rs-10x26x8-mm</t>
   </si>
   <si>
-    <t>https://www.amazon.de/gp/product/B00IQH1EUE/ref=ppx_yo_dt_b_asin_title_o03_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>Zweikomponentenkleber</t>
-  </si>
-  <si>
     <t>Magnete.de</t>
   </si>
   <si>
@@ -241,6 +211,30 @@
   </si>
   <si>
     <t>https://www.amazon.de/gp/product/B07KYHBVR7/ref=ppx_yo_dt_b_asin_title_o04_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>https://www.arrow.com/en/products/nucleo-f446ze/stmicroelectronics</t>
+  </si>
+  <si>
+    <t>Terstegge</t>
+  </si>
+  <si>
+    <t>Kaltgeräte Buchse</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.de/Hifi-Lab-Einbau-Stecker-Einbau-Buchse-Kaltger%C3%A4te-Buchse/dp/B01H5MK3OI/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1CXN76BAOKJYC&amp;keywords=kaltger%C3%A4testecker+buchse+einbau&amp;qid=1560454204&amp;s=gateway&amp;sprefix=kaltger%C3%A4testecker+buch%2Caps%2C146&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.de/UHU-45585-2-Komponentenkleber-Doppelkammerspritze-Endfest/dp/B000WGYSVO/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=M01SAOIE3SKX&amp;keywords=zweikomponentenkleber&amp;qid=1560454452&amp;s=gateway&amp;sprefix=zweikomponentenkleber%2Caps%2C147&amp;sr=8-5&amp;th=1</t>
+  </si>
+  <si>
+    <t>Kleber</t>
+  </si>
+  <si>
+    <t>https://www.supermagnete.de/scheibenmagnete-neodym/scheibenmagnet-3mm-3mm_S-03-03-N</t>
   </si>
 </sst>
 </file>
@@ -248,7 +242,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -336,7 +330,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
@@ -346,21 +340,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -413,8 +407,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:N38" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:N38" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:N32" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:N32" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="13">
       <filters blank="1">
         <filter val="Nein"/>
@@ -434,11 +428,11 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Puffer"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Benötigte Menge"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Menge pro Einheit"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Preis pro Einheit" dataCellStyle="Währung"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Preis pro Einheit"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Benötigte Einheiten" dataDxfId="2">
       <calculatedColumnFormula>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Preis" dataCellStyle="Währung">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Preis">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Wo?"/>
@@ -450,16 +444,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="I42:M51" totalsRowShown="0">
-  <autoFilter ref="I42:M51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="I36:M45" totalsRowShown="0">
+  <autoFilter ref="I36:M45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bestellung"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Preis" dataCellStyle="Währung">
-      <calculatedColumnFormula>SUMIF(Tabelle1[Wo?],I43,Tabelle1[Preis])</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Preis">
+      <calculatedColumnFormula>SUMIF(Tabelle1[Wo?],I37,Tabelle1[Preis])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Versand" dataCellStyle="Währung"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Steuern/Rabatt" dataDxfId="1" dataCellStyle="Währung"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Gesamt" dataDxfId="0" dataCellStyle="Währung">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Versand"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Steuern/Rabatt" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Gesamt" dataDxfId="0">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -730,13 +724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N53"/>
+  <dimension ref="A2:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -771,28 +765,28 @@
         <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -835,10 +829,10 @@
         <v>109.8</v>
       </c>
       <c r="L3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -849,11 +843,11 @@
         <v>0.15</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C24" si="0">B4*18</f>
+        <f t="shared" ref="C4:C23" si="0">B4*18</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D24" si="1">C4*4</f>
+        <f t="shared" ref="D4:D23" si="1">C4*4</f>
         <v>10.799999999999999</v>
       </c>
       <c r="E4">
@@ -863,7 +857,7 @@
         <v>1.7</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G38" si="2">D4-E4+F4</f>
+        <f t="shared" ref="G4:G32" si="2">D4-E4+F4</f>
         <v>12.499999999999998</v>
       </c>
       <c r="H4">
@@ -881,10 +875,10 @@
         <v>274.5</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -927,13 +921,13 @@
         <v>138.82</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -941,15 +935,15 @@
         <v>22</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>864</v>
+        <v>1080</v>
       </c>
       <c r="E6">
         <v>120</v>
@@ -959,7 +953,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>794</v>
+        <v>1010</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -969,20 +963,20 @@
       </c>
       <c r="J6">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K6" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>69.800000000000011</v>
+        <v>90.740000000000009</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1028,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1074,10 +1068,10 @@
         <v>99.84</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1117,10 +1111,10 @@
         <v>32.700000000000003</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1163,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1212,10 +1206,10 @@
         <v>111.60000000000001</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1258,10 +1252,10 @@
         <v>6.4</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1304,10 +1298,10 @@
         <v>8.6800000000000015</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1350,10 +1344,10 @@
         <v>38.200000000000003</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1396,10 +1390,10 @@
         <v>28.8</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1442,10 +1436,10 @@
         <v>17.399999999999999</v>
       </c>
       <c r="L16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1489,10 +1483,10 @@
         <v>7.49</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1535,15 +1529,15 @@
         <v>28.5</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>0.25</v>
@@ -1581,10 +1575,10 @@
         <v>23.549999999999997</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1627,10 +1621,10 @@
         <v>1.9</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1672,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1680,15 +1674,15 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>504</v>
+        <v>792</v>
       </c>
       <c r="E22">
         <v>300</v>
@@ -1698,7 +1692,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>254</v>
+        <v>542</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -1708,17 +1702,17 @@
       </c>
       <c r="J22">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K22" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>14.309999999999999</v>
+        <v>28.619999999999997</v>
       </c>
       <c r="L22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1761,74 +1755,102 @@
         <v>13.5</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>0.15</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>B24*18</f>
+        <v>2.6999999999999997</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C24*4</f>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.799999999999997</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24">
-        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="J24" s="4">
+        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
+        <v>3</v>
       </c>
       <c r="K24" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2.2800000000000002</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>0.15</v>
       </c>
       <c r="C25">
         <f>B25*18</f>
-        <v>54</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="D25">
         <f>C25*4</f>
-        <v>216</v>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>236</v>
+        <v>22.799999999999997</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.78</v>
+      </c>
       <c r="J25" s="4">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="K25" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>2.34</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1839,11 +1861,11 @@
         <v>0.15</v>
       </c>
       <c r="C26">
-        <f>B26*18</f>
+        <f t="shared" ref="C26:C27" si="3">B26*18</f>
         <v>2.6999999999999997</v>
       </c>
       <c r="D26">
-        <f>C26*4</f>
+        <f t="shared" ref="D26:D27" si="4">C26*4</f>
         <v>10.799999999999999</v>
       </c>
       <c r="E26">
@@ -1871,10 +1893,10 @@
         <v>2.2800000000000002</v>
       </c>
       <c r="L26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N26" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1885,11 +1907,11 @@
         <v>0.15</v>
       </c>
       <c r="C27">
-        <f>B27*18</f>
+        <f t="shared" si="3"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="D27">
-        <f>C27*4</f>
+        <f t="shared" si="4"/>
         <v>10.799999999999999</v>
       </c>
       <c r="E27">
@@ -1906,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="6">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="J27" s="4">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
@@ -1914,593 +1936,398 @@
       </c>
       <c r="K27" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>2.34</v>
+        <v>2.2800000000000002</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <f>1/72</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C32" si="5">B28*18</f>
+        <v>0.25</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D32" si="6">C28*4</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="J28" s="4">
+        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="L28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>0.15</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:C29" si="3">B28*18</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ref="D28:D29" si="4">C28*4</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>22.799999999999997</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.76</v>
-      </c>
-      <c r="J28" s="4">
-        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>3</v>
-      </c>
-      <c r="K28" s="6">
-        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>2.2800000000000002</v>
-      </c>
-      <c r="L28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>0.15</v>
+        <v>46</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
-        <v>2.6999999999999997</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>22.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" s="6"/>
       <c r="J29" s="4">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>2.2800000000000002</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <f>1/18/4</f>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C37" si="5">B30*18</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D37" si="6">C30*4</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="6">
+        <v>6.89</v>
+      </c>
       <c r="J30" s="4">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>6.89</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31">
-        <f>1/72</f>
-        <v>1.3888888888888888E-2</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="6">
+        <v>9.39</v>
+      </c>
       <c r="J31" s="4">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>28.17</v>
       </c>
       <c r="L31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <f>1/72*2</f>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6">
+        <v>25.3</v>
+      </c>
       <c r="J32" s="4">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="4">
-        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>50.6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" t="s">
         <v>52</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="4">
-        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="4">
-        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="6">
+        <f>SUMIF(Tabelle1[Wo?],I37,Tabelle1[Preis])</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K37" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6">
+        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
+        <v>60.300000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="6">
+        <f>SUMIF(Tabelle1[Wo?],I38,Tabelle1[Preis])</f>
+        <v>18.559999999999999</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6">
+        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="6">
+        <f>SUMIF(Tabelle1[Wo?],I39,Tabelle1[Preis])</f>
+        <v>409.34999999999991</v>
+      </c>
+      <c r="K39" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="L39" s="6">
+        <v>-9</v>
+      </c>
+      <c r="M39" s="6">
+        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
+        <v>405.94999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="6">
+        <f>SUMIF(Tabelle1[Wo?],I40,Tabelle1[Preis])</f>
+        <v>161.90999999999997</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6">
+        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
+        <v>161.90999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="6">
+        <f>SUMIF(Tabelle1[Wo?],I41,Tabelle1[Preis])</f>
+        <v>384.3</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6">
+        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
+        <v>384.3</v>
+      </c>
+    </row>
+    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36">
-        <f>1/72*2</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6">
-        <v>25.3</v>
-      </c>
-      <c r="J36" s="4">
-        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>2</v>
-      </c>
-      <c r="K36" s="6">
-        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>50.6</v>
-      </c>
-      <c r="L36" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37">
-        <f>1/72</f>
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="4">
-        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="K37" s="6">
-        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38">
-        <f>1/72</f>
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38" si="7">B38*18</f>
-        <v>0.25</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ref="D38" si="8">C38*4</f>
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="4">
-        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="6">
-        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I42" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" t="s">
-        <v>58</v>
-      </c>
-      <c r="M42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="6">
+        <f>SUMIF(Tabelle1[Wo?],I42,Tabelle1[Preis])</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7">
+        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J43" s="6">
         <f>SUMIF(Tabelle1[Wo?],I43,Tabelle1[Preis])</f>
-        <v>32.700000000000003</v>
-      </c>
-      <c r="K43" s="6">
-        <v>27.6</v>
-      </c>
+        <v>138.82</v>
+      </c>
+      <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="6">
+      <c r="M43" s="7">
         <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>60.300000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>138.82</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="J44" s="6">
         <f>SUMIF(Tabelle1[Wo?],I44,Tabelle1[Preis])</f>
-        <v>0</v>
+        <v>143.99</v>
       </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6">
+      <c r="L44" s="11"/>
+      <c r="M44" s="7">
         <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>143.99</v>
+      </c>
+    </row>
+    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J45" s="6">
         <f>SUMIF(Tabelle1[Wo?],I45,Tabelle1[Preis])</f>
-        <v>409.34999999999991</v>
-      </c>
-      <c r="K45" s="6">
-        <v>5.6</v>
-      </c>
-      <c r="L45" s="6">
-        <v>-9</v>
-      </c>
-      <c r="M45" s="6">
-        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>405.94999999999993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>43</v>
-      </c>
-      <c r="J46" s="6">
-        <f>SUMIF(Tabelle1[Wo?],I46,Tabelle1[Preis])</f>
-        <v>91.600000000000009</v>
-      </c>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6">
-        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>91.600000000000009</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" s="6">
-        <f>SUMIF(Tabelle1[Wo?],I47,Tabelle1[Preis])</f>
-        <v>384.3</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6">
-        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>384.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="6">
-        <f>SUMIF(Tabelle1[Wo?],I48,Tabelle1[Preis])</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="7">
-        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="6">
-        <f>SUMIF(Tabelle1[Wo?],I49,Tabelle1[Preis])</f>
-        <v>138.82</v>
-      </c>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="7">
-        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>138.82</v>
-      </c>
-    </row>
-    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
-        <v>3</v>
-      </c>
-      <c r="J50" s="6">
-        <f>SUMIF(Tabelle1[Wo?],I50,Tabelle1[Preis])</f>
-        <v>143.99</v>
-      </c>
-      <c r="K50" s="6"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="7">
-        <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>143.99</v>
-      </c>
-    </row>
-    <row r="51" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I51" t="s">
-        <v>66</v>
-      </c>
-      <c r="J51" s="6">
-        <f>SUMIF(Tabelle1[Wo?],I51,Tabelle1[Preis])</f>
         <v>28.8</v>
       </c>
-      <c r="K51" s="6"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="7">
+      <c r="K45" s="6"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="7">
         <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
         <v>28.8</v>
       </c>
     </row>
-    <row r="53" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="L53" s="2" t="s">
+    <row r="47" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M47" s="8">
         <f>SUM(Tabelle2[Gesamt])</f>
-        <v>1253.7599999999998</v>
+        <v>1342.6299999999999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M5" r:id="rId1" xr:uid="{E31B9AA0-941A-43DA-BDD0-D5E2C1D0F0E0}"/>
     <hyperlink ref="M7" r:id="rId2" xr:uid="{3DDA7E41-5210-4255-AFAA-457854F2BF91}"/>
-    <hyperlink ref="M15" r:id="rId3" xr:uid="{8ACBA0A1-3FFD-49A4-9FD5-008E085369C0}"/>
-    <hyperlink ref="M17" r:id="rId4" xr:uid="{17D630C9-EADB-48A7-8267-137640739863}"/>
-    <hyperlink ref="M22" r:id="rId5" xr:uid="{A48A075F-97F3-417A-A984-1EAD41986E11}"/>
-    <hyperlink ref="M6" r:id="rId6" xr:uid="{CA0F3A00-1ADC-40B3-9247-32BE6360DE03}"/>
+    <hyperlink ref="M17" r:id="rId3" xr:uid="{17D630C9-EADB-48A7-8267-137640739863}"/>
+    <hyperlink ref="M22" r:id="rId4" xr:uid="{A48A075F-97F3-417A-A984-1EAD41986E11}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{CA0F3A00-1ADC-40B3-9247-32BE6360DE03}"/>
+    <hyperlink ref="M28" r:id="rId6" xr:uid="{4B5A06AB-2215-4E73-AF4E-0A9F9CA81632}"/>
+    <hyperlink ref="M30" r:id="rId7" display="https://smile.amazon.de/Hifi-Lab-Einbau-Stecker-Einbau-Buchse-Kaltger%C3%A4te-Buchse/dp/B01H5MK3OI/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1CXN76BAOKJYC&amp;keywords=kaltger%C3%A4testecker+buchse+einbau&amp;qid=1560454204&amp;s=gateway&amp;sprefix=kaltger%C3%A4testecker+buch%2Caps%2C146&amp;sr=8-5" xr:uid="{3A5010BC-508A-4E08-94A8-D543C946E3A8}"/>
+    <hyperlink ref="M31" r:id="rId8" display="https://smile.amazon.de/UHU-45585-2-Komponentenkleber-Doppelkammerspritze-Endfest/dp/B000WGYSVO/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=M01SAOIE3SKX&amp;keywords=zweikomponentenkleber&amp;qid=1560454452&amp;s=gateway&amp;sprefix=zweikomponentenkleber%2Caps%2C147&amp;sr=8-5&amp;th=1" xr:uid="{12CFB405-F8B4-4F19-A219-CB9AF93EEA47}"/>
+    <hyperlink ref="M15" r:id="rId9" xr:uid="{0467F294-2C72-4F16-AF69-D80B286902FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <tableParts count="2">
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bestellung ADClock.xlsx
+++ b/Bestellung ADClock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\ADClock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Git\MCT\ADClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD589A-754A-458E-A7B3-7C924D9E1022}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4D740F-5CE8-4E33-AD53-894EAE009915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -330,7 +330,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
@@ -340,21 +340,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -408,13 +408,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:N32" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:N32" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="13">
-      <filters blank="1">
-        <filter val="Nein"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:N32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teil"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pro Uhr"/>
@@ -726,11 +720,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -789,7 +783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -835,7 +829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1022,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1258,7 +1252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1390,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1489,7 +1483,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1535,7 +1529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1715,7 +1709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1761,7 +1755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1807,7 +1801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2101,7 +2095,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>

--- a/Bestellung ADClock.xlsx
+++ b/Bestellung ADClock.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulm\Git\MCT\ADClock\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4D740F-5CE8-4E33-AD53-894EAE009915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Filament Black</t>
   </si>
@@ -171,9 +165,6 @@
     <t xml:space="preserve">STM 32 </t>
   </si>
   <si>
-    <t>WLAN Modul?</t>
-  </si>
-  <si>
     <t>Lötzinn</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t>https://www.arrow.com/en/products/nucleo-f446ze/stmicroelectronics</t>
   </si>
   <si>
-    <t>Terstegge</t>
-  </si>
-  <si>
     <t>Kaltgeräte Buchse</t>
   </si>
   <si>
@@ -235,12 +223,27 @@
   </si>
   <si>
     <t>https://www.supermagnete.de/scheibenmagnete-neodym/scheibenmagnet-3mm-3mm_S-03-03-N</t>
+  </si>
+  <si>
+    <t>https://www.kugellager-express.de/miniatur-axialkugellager-drucklager-f8-14m-8x14x4-mm</t>
+  </si>
+  <si>
+    <t>Federn</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/sourcingmap-3mmx4mmx10mm-Edelstahl-Silber-Druckfedern/dp/B076M74HG8/</t>
+  </si>
+  <si>
+    <t>WLAN Modul</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/AZDelivery-esp8266-ESP-01S-Arduino-Raspberry/dp/B074RL7YR3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -348,7 +351,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -407,47 +410,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:N32" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:N32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:N34" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:N34"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Teil"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="pro Uhr"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="pro Ziffer">
+    <tableColumn id="1" name="Teil"/>
+    <tableColumn id="2" name="pro Uhr"/>
+    <tableColumn id="3" name="pro Ziffer">
       <calculatedColumnFormula>B3*18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Gesamt">
+    <tableColumn id="4" name="Gesamt">
       <calculatedColumnFormula>C3*4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="da"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Puffer"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Benötigte Menge"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Menge pro Einheit"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Preis pro Einheit"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Benötigte Einheiten" dataDxfId="2">
+    <tableColumn id="5" name="da"/>
+    <tableColumn id="6" name="Puffer"/>
+    <tableColumn id="7" name="Benötigte Menge"/>
+    <tableColumn id="8" name="Menge pro Einheit"/>
+    <tableColumn id="9" name="Preis pro Einheit"/>
+    <tableColumn id="10" name="Benötigte Einheiten" dataDxfId="2">
       <calculatedColumnFormula>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Preis">
+    <tableColumn id="11" name="Preis">
       <calculatedColumnFormula>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Wo?"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Link"/>
-    <tableColumn id="14" xr3:uid="{F908233B-F8EC-453F-B55A-E62CBEFF952B}" name="Bestellt?"/>
+    <tableColumn id="12" name="Wo?"/>
+    <tableColumn id="13" name="Link"/>
+    <tableColumn id="14" name="Bestellt?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="I36:M45" totalsRowShown="0">
-  <autoFilter ref="I36:M45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="I36:M45" totalsRowShown="0">
+  <autoFilter ref="I36:M45"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bestellung"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Preis">
+    <tableColumn id="1" name="Bestellung"/>
+    <tableColumn id="2" name="Preis">
       <calculatedColumnFormula>SUMIF(Tabelle1[Wo?],I37,Tabelle1[Preis])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Versand"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Steuern/Rabatt" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Gesamt" dataDxfId="0">
+    <tableColumn id="3" name="Versand"/>
+    <tableColumn id="5" name="Steuern/Rabatt" dataDxfId="1"/>
+    <tableColumn id="4" name="Gesamt" dataDxfId="0">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -710,18 +713,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +783,7 @@
         <v>37</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -826,7 +829,7 @@
         <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -851,7 +854,7 @@
         <v>1.7</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G32" si="2">D4-E4+F4</f>
+        <f t="shared" ref="G4:G34" si="2">D4-E4+F4</f>
         <v>12.499999999999998</v>
       </c>
       <c r="H4">
@@ -872,7 +875,7 @@
         <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -918,10 +921,10 @@
         <v>39</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -967,10 +970,10 @@
         <v>40</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1016,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1065,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1108,7 +1111,7 @@
         <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1157,7 +1160,7 @@
         <v>44</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1203,7 +1206,7 @@
         <v>41</v>
       </c>
       <c r="N11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1249,7 +1252,7 @@
         <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1295,7 +1298,7 @@
         <v>41</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,7 +1344,7 @@
         <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1384,10 +1387,10 @@
         <v>28.8</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1433,7 +1436,7 @@
         <v>41</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1480,7 +1483,7 @@
         <v>40</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1526,7 +1529,7 @@
         <v>41</v>
       </c>
       <c r="N18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1572,7 +1575,7 @@
         <v>41</v>
       </c>
       <c r="N19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1618,7 +1621,7 @@
         <v>41</v>
       </c>
       <c r="N20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1706,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1752,7 +1755,7 @@
         <v>41</v>
       </c>
       <c r="N23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1798,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="N24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1844,7 +1847,7 @@
         <v>41</v>
       </c>
       <c r="N25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1890,7 +1893,7 @@
         <v>41</v>
       </c>
       <c r="N26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1936,7 +1939,7 @@
         <v>41</v>
       </c>
       <c r="N27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1980,47 +1983,56 @@
         <v>18.559999999999999</v>
       </c>
       <c r="L28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>69</v>
+      </c>
+      <c r="B29">
+        <f>1/72</f>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6">
+        <v>8.7899999999999991</v>
+      </c>
       <c r="J29" s="4">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>0</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <f>1/18/4</f>
@@ -2056,12 +2068,12 @@
         <v>40</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <f t="shared" si="5"/>
@@ -2092,12 +2104,12 @@
         <v>40</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <f>1/72*2</f>
@@ -2133,27 +2145,119 @@
         <v>41</v>
       </c>
       <c r="N32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f>B33*18</f>
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <f>C33*4</f>
+        <v>72</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="J33" s="4">
+        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
+        <v>100</v>
+      </c>
+      <c r="K33" s="6">
+        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
+        <v>130</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f>B34*18</f>
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <f>C34*4</f>
+        <v>72</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34" s="6">
+        <v>5.96</v>
+      </c>
+      <c r="J34" s="4">
+        <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
+        <v>5</v>
+      </c>
+      <c r="K34" s="6">
+        <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
+        <v>29.8</v>
+      </c>
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36" t="s">
         <v>26</v>
       </c>
       <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
         <v>49</v>
-      </c>
-      <c r="L36" t="s">
-        <v>50</v>
       </c>
       <c r="M36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
         <v>42</v>
       </c>
@@ -2170,9 +2274,9 @@
         <v>60.300000000000004</v>
       </c>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J38" s="6">
         <f>SUMIF(Tabelle1[Wo?],I38,Tabelle1[Preis])</f>
@@ -2185,7 +2289,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>41</v>
       </c>
@@ -2204,22 +2308,22 @@
         <v>405.94999999999993</v>
       </c>
     </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>40</v>
       </c>
       <c r="J40" s="6">
         <f>SUMIF(Tabelle1[Wo?],I40,Tabelle1[Preis])</f>
-        <v>161.90999999999997</v>
+        <v>200.5</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6">
         <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>161.90999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.25">
+        <v>200.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
         <v>38</v>
       </c>
@@ -2236,7 +2340,7 @@
         <v>384.3</v>
       </c>
     </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
         <v>43</v>
       </c>
@@ -2251,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
         <v>39</v>
       </c>
@@ -2266,24 +2370,24 @@
         <v>138.82</v>
       </c>
     </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="6">
         <f>SUMIF(Tabelle1[Wo?],I44,Tabelle1[Preis])</f>
-        <v>143.99</v>
+        <v>273.99</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="11"/>
       <c r="M44" s="7">
         <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>143.99</v>
-      </c>
-    </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.25">
+        <v>273.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" s="6">
         <f>SUMIF(Tabelle1[Wo?],I45,Tabelle1[Preis])</f>
@@ -2296,32 +2400,35 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="47" spans="9:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M47" s="8">
         <f>SUM(Tabelle2[Gesamt])</f>
-        <v>1342.6299999999999</v>
+        <v>1511.2199999999998</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" xr:uid="{E31B9AA0-941A-43DA-BDD0-D5E2C1D0F0E0}"/>
-    <hyperlink ref="M7" r:id="rId2" xr:uid="{3DDA7E41-5210-4255-AFAA-457854F2BF91}"/>
-    <hyperlink ref="M17" r:id="rId3" xr:uid="{17D630C9-EADB-48A7-8267-137640739863}"/>
-    <hyperlink ref="M22" r:id="rId4" xr:uid="{A48A075F-97F3-417A-A984-1EAD41986E11}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{CA0F3A00-1ADC-40B3-9247-32BE6360DE03}"/>
-    <hyperlink ref="M28" r:id="rId6" xr:uid="{4B5A06AB-2215-4E73-AF4E-0A9F9CA81632}"/>
-    <hyperlink ref="M30" r:id="rId7" display="https://smile.amazon.de/Hifi-Lab-Einbau-Stecker-Einbau-Buchse-Kaltger%C3%A4te-Buchse/dp/B01H5MK3OI/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1CXN76BAOKJYC&amp;keywords=kaltger%C3%A4testecker+buchse+einbau&amp;qid=1560454204&amp;s=gateway&amp;sprefix=kaltger%C3%A4testecker+buch%2Caps%2C146&amp;sr=8-5" xr:uid="{3A5010BC-508A-4E08-94A8-D543C946E3A8}"/>
-    <hyperlink ref="M31" r:id="rId8" display="https://smile.amazon.de/UHU-45585-2-Komponentenkleber-Doppelkammerspritze-Endfest/dp/B000WGYSVO/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=M01SAOIE3SKX&amp;keywords=zweikomponentenkleber&amp;qid=1560454452&amp;s=gateway&amp;sprefix=zweikomponentenkleber%2Caps%2C147&amp;sr=8-5&amp;th=1" xr:uid="{12CFB405-F8B4-4F19-A219-CB9AF93EEA47}"/>
-    <hyperlink ref="M15" r:id="rId9" xr:uid="{0467F294-2C72-4F16-AF69-D80B286902FE}"/>
+    <hyperlink ref="M5" r:id="rId1"/>
+    <hyperlink ref="M7" r:id="rId2"/>
+    <hyperlink ref="M17" r:id="rId3"/>
+    <hyperlink ref="M22" r:id="rId4"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M28" r:id="rId6"/>
+    <hyperlink ref="M30" r:id="rId7" display="https://smile.amazon.de/Hifi-Lab-Einbau-Stecker-Einbau-Buchse-Kaltger%C3%A4te-Buchse/dp/B01H5MK3OI/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=1CXN76BAOKJYC&amp;keywords=kaltger%C3%A4testecker+buchse+einbau&amp;qid=1560454204&amp;s=gateway&amp;sprefix=kaltger%C3%A4testecker+buch%2Caps%2C146&amp;sr=8-5"/>
+    <hyperlink ref="M31" r:id="rId8" display="https://smile.amazon.de/UHU-45585-2-Komponentenkleber-Doppelkammerspritze-Endfest/dp/B000WGYSVO/ref=sr_1_5?__mk_de_DE=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=M01SAOIE3SKX&amp;keywords=zweikomponentenkleber&amp;qid=1560454452&amp;s=gateway&amp;sprefix=zweikomponentenkleber%2Caps%2C147&amp;sr=8-5&amp;th=1"/>
+    <hyperlink ref="M15" r:id="rId9"/>
+    <hyperlink ref="M33" r:id="rId10"/>
+    <hyperlink ref="M34" r:id="rId11"/>
+    <hyperlink ref="M29" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
   <tableParts count="2">
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bestellung ADClock.xlsx
+++ b/Bestellung ADClock.xlsx
@@ -297,6 +297,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,6 +312,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -713,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +817,7 @@
         <v>2.5</v>
       </c>
       <c r="I3" s="6">
-        <v>54.9</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="J3">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
@@ -823,7 +825,7 @@
       </c>
       <c r="K3" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>109.8</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="L3" t="s">
         <v>38</v>
@@ -861,7 +863,7 @@
         <v>2.5</v>
       </c>
       <c r="I4" s="6">
-        <v>54.9</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="J4">
         <f>ROUNDUP(Tabelle1[[#This Row],[Benötigte Menge]]/Tabelle1[[#This Row],[Menge pro Einheit]],0)</f>
@@ -869,7 +871,7 @@
       </c>
       <c r="K4" s="6">
         <f>Tabelle1[[#This Row],[Benötigte Einheiten]]*Tabelle1[[#This Row],[Preis pro Einheit]]</f>
-        <v>274.5</v>
+        <v>374.5</v>
       </c>
       <c r="L4" t="s">
         <v>38</v>
@@ -2329,7 +2331,7 @@
       </c>
       <c r="J41" s="6">
         <f>SUMIF(Tabelle1[Wo?],I41,Tabelle1[Preis])</f>
-        <v>384.3</v>
+        <v>524.29999999999995</v>
       </c>
       <c r="K41" s="6">
         <v>0</v>
@@ -2337,7 +2339,7 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6">
         <f>Tabelle2[[#This Row],[Preis]]+Tabelle2[[#This Row],[Versand]]+Tabelle2[[#This Row],[Steuern/Rabatt]]</f>
-        <v>384.3</v>
+        <v>524.29999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2406,7 +2408,7 @@
       </c>
       <c r="M47" s="8">
         <f>SUM(Tabelle2[Gesamt])</f>
-        <v>1511.2199999999998</v>
+        <v>1651.2199999999998</v>
       </c>
     </row>
   </sheetData>
